--- a/linearpowerboard.xlsx
+++ b/linearpowerboard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t xml:space="preserve">Linear Power Board</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Info.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mouser#</t>
+    <t xml:space="preserve">Mouser part #</t>
   </si>
   <si>
     <t xml:space="preserve">C1, C6</t>
@@ -203,15 +203,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Adjustable Linear </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Voltage </t>
+      <t xml:space="preserve">Adjustable Linear Voltage </t>
     </r>
     <r>
       <rPr>
@@ -247,6 +239,42 @@
   <si>
     <t xml:space="preserve">926-LM337T/NOPB </t>
   </si>
+  <si>
+    <t xml:space="preserve">Additional items for heatsinks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulating thermal interface sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyimide Plastic Film for TO-220 regulators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532-43-77-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulating washer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulating shoulder washer for TO-220 regulators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532-7721-7PPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3x10 screws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 spring washers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-conductive thermal compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply to both sides of the thermal interface sheet when attaching regulator to heatsink</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -302,18 +330,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,7 +379,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,6 +410,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -392,6 +437,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,20 +505,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="48.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -426,7 +531,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -567,7 +672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -707,9 +812,78 @@
         <v>66</v>
       </c>
     </row>
+    <row r="16" s="8" customFormat="true" ht="8.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="10" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
